--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1087149.920979776</v>
+        <v>1083138.11824768</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518388</v>
+        <v>29001646.18518387</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140345</v>
+        <v>6432656.960140341</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4926320.730860283</v>
+        <v>4926320.730860284</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>162.9081044153007</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.4480796640684</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1530,19 +1530,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1584,19 +1584,19 @@
         <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>173.6915801620779</v>
+        <v>97.55571980231964</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>38.16259584894129</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>135.9957333697985</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1767,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.11067767695072</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>42.86111130202205</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
@@ -1824,10 +1824,10 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1849,19 +1849,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>135.9957333697985</v>
+        <v>372.0816185984218</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>15.7079195861124</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>104.072525871708</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>233.9196756331321</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4696058069531</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2259,7 +2259,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>47.99856015346489</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>268.1551590864041</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>243.2451601421427</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2335,7 +2335,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>8.186454565729013</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>207.0525188544831</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>0.8570280268723445</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2794,13 +2794,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>266.6653590370866</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>354.7715487518856</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>233.3691175240644</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>147.7291388837973</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>226.7168242895739</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>257.3431704794307</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161368</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603956</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>15.75775879579395</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
@@ -3486,10 +3486,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>31.57863182921021</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>353.0892692544099</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3514,13 +3514,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>120.4676606753264</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>154.9343501011409</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
@@ -3720,16 +3720,16 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>85.77344057136108</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>353.0892692544099</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161368</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>405.7423159395001</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>22.30754506344942</v>
       </c>
       <c r="F43" t="n">
-        <v>107.4453771922898</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603956</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648588</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3913006112174844</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161368</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>99.30118883035978</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>71.56535870562635</v>
+        <v>76.67078579085917</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.75541829589046</v>
+        <v>1461.665852299048</v>
       </c>
       <c r="C11" t="n">
-        <v>42.75541829589046</v>
+        <v>1034.765122312348</v>
       </c>
       <c r="D11" t="n">
-        <v>42.75541829589046</v>
+        <v>1034.765122312348</v>
       </c>
       <c r="E11" t="n">
-        <v>42.75541829589046</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F11" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G11" t="n">
         <v>42.75541829589046</v>
@@ -5038,7 +5038,7 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072045</v>
@@ -5047,7 +5047,7 @@
         <v>437.0691715610003</v>
       </c>
       <c r="L11" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
@@ -5074,19 +5074,19 @@
         <v>1867.003122344157</v>
       </c>
       <c r="U11" t="n">
-        <v>1608.808787422828</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="V11" t="n">
-        <v>1251.319372549078</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="W11" t="n">
-        <v>854.9280228494245</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="X11" t="n">
-        <v>443.2080240171717</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.75541829589046</v>
+        <v>1461.665852299048</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I12" t="n">
-        <v>86.44169614186397</v>
+        <v>62.98439029745214</v>
       </c>
       <c r="J12" t="n">
-        <v>404.4659091426544</v>
+        <v>404.4659091426543</v>
       </c>
       <c r="K12" t="n">
-        <v>552.2568635109026</v>
+        <v>552.2568635109025</v>
       </c>
       <c r="L12" t="n">
-        <v>758.5074531333023</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M12" t="n">
         <v>1002.337654088804</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.955188520548</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="C13" t="n">
-        <v>917.9826253994636</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="D13" t="n">
-        <v>754.6658525262343</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="E13" t="n">
-        <v>588.4576466790878</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="F13" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="G13" t="n">
         <v>251.2392550574695</v>
@@ -5199,25 +5199,25 @@
         <v>42.75541829589046</v>
       </c>
       <c r="J13" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K13" t="n">
-        <v>244.402851647335</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L13" t="n">
-        <v>730.2862354305479</v>
+        <v>275.9756251911621</v>
       </c>
       <c r="M13" t="n">
-        <v>1075.944407907174</v>
+        <v>805.0739266028065</v>
       </c>
       <c r="N13" t="n">
-        <v>1588.472585890574</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794523</v>
@@ -5232,19 +5232,19 @@
         <v>1737.27866519234</v>
       </c>
       <c r="U13" t="n">
-        <v>1561.832624624584</v>
+        <v>1638.737534078886</v>
       </c>
       <c r="V13" t="n">
-        <v>1280.121157232613</v>
+        <v>1357.026066686915</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.121157232613</v>
+        <v>1082.173662859428</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.121157232613</v>
+        <v>839.6097663052327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.121157232613</v>
+        <v>613.2669979949748</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2000.401487148261</v>
+        <v>469.6561482825904</v>
       </c>
       <c r="C14" t="n">
-        <v>1573.500757161562</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="D14" t="n">
-        <v>1573.500757161562</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.523817309419</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3996354988194</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K14" t="n">
         <v>437.0691715610002</v>
@@ -5293,37 +5293,37 @@
         <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
         <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794522</v>
+        <v>2040.594181733356</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.770914794522</v>
+        <v>1683.104766859606</v>
       </c>
       <c r="W14" t="n">
-        <v>2137.770914794522</v>
+        <v>1286.713417159953</v>
       </c>
       <c r="X14" t="n">
-        <v>2137.770914794522</v>
+        <v>874.9934183277001</v>
       </c>
       <c r="Y14" t="n">
-        <v>2000.401487148261</v>
+        <v>469.6561482825904</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059643</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283641</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838654</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180608</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>798.0706932421031</v>
+        <v>248.0623214879469</v>
       </c>
       <c r="C16" t="n">
-        <v>626.098130121019</v>
+        <v>248.0623214879469</v>
       </c>
       <c r="D16" t="n">
-        <v>626.098130121019</v>
+        <v>214.61719252133</v>
       </c>
       <c r="E16" t="n">
-        <v>459.8899242738726</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F16" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484805</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K16" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L16" t="n">
-        <v>899.647127896349</v>
+        <v>652.364518782327</v>
       </c>
       <c r="M16" t="n">
-        <v>1388.700612480481</v>
+        <v>1181.462820193971</v>
       </c>
       <c r="N16" t="n">
-        <v>1901.228790463881</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O16" t="n">
-        <v>2003.682813232011</v>
+        <v>1796.445020945502</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880157</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098195</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V16" t="n">
-        <v>1457.143326818622</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W16" t="n">
-        <v>1457.143326818622</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X16" t="n">
-        <v>1214.579430264427</v>
+        <v>664.5710585102705</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.2366619541688</v>
+        <v>438.2282902000126</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2137.770914794522</v>
+        <v>1673.804988303339</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.870184807823</v>
+        <v>1246.904258316639</v>
       </c>
       <c r="D17" t="n">
-        <v>1573.500757161562</v>
+        <v>871.0642395303546</v>
       </c>
       <c r="E17" t="n">
-        <v>1147.523817309419</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F17" t="n">
-        <v>722.3996354988194</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103615</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072045</v>
@@ -5533,34 +5533,34 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.878716272599</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W17" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X17" t="n">
-        <v>2137.770914794522</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y17" t="n">
-        <v>2137.770914794522</v>
+        <v>1673.804988303339</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J18" t="n">
-        <v>404.4659091426544</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K18" t="n">
-        <v>552.2568635109026</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333023</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1089.955188520548</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="C19" t="n">
-        <v>917.9826253994636</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="D19" t="n">
-        <v>754.6658525262343</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="E19" t="n">
-        <v>588.4576466790878</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="F19" t="n">
-        <v>416.5958724536483</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2392550574695</v>
+        <v>58.62200373640803</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
         <v>162.6349221330689</v>
@@ -5682,19 +5682,19 @@
         <v>977.56884454457</v>
       </c>
       <c r="M19" t="n">
-        <v>1093.544903181524</v>
+        <v>1237.327115102582</v>
       </c>
       <c r="N19" t="n">
-        <v>1588.472585890573</v>
+        <v>1749.855293085983</v>
       </c>
       <c r="O19" t="n">
-        <v>1690.926608658703</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880157</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
         <v>2131.215415329221</v>
@@ -5703,22 +5703,22 @@
         <v>2131.215415329221</v>
       </c>
       <c r="T19" t="n">
-        <v>1891.723027423365</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U19" t="n">
         <v>1611.587689049647</v>
       </c>
       <c r="V19" t="n">
-        <v>1611.587689049647</v>
+        <v>1329.876221657676</v>
       </c>
       <c r="W19" t="n">
-        <v>1506.463925542871</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="X19" t="n">
-        <v>1506.463925542871</v>
+        <v>812.4599212759944</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.121157232613</v>
+        <v>586.1171529657364</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.6561482825904</v>
+        <v>1172.94542395534</v>
       </c>
       <c r="C20" t="n">
-        <v>42.75541829589046</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="D20" t="n">
-        <v>42.75541829589046</v>
+        <v>746.0446939686403</v>
       </c>
       <c r="E20" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103585</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.069171561</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
@@ -5773,31 +5773,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2102.953131151136</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>2102.953131151136</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U20" t="n">
-        <v>2102.953131151136</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V20" t="n">
-        <v>2102.953131151136</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="W20" t="n">
-        <v>1706.561781451483</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="X20" t="n">
-        <v>1294.84178261923</v>
+        <v>1409.227924594868</v>
       </c>
       <c r="Y20" t="n">
-        <v>889.5045125741204</v>
+        <v>1409.227924594868</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,37 +5822,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J21" t="n">
-        <v>404.4659091426544</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109026</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333023</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M21" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>902.429290937647</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="C22" t="n">
-        <v>730.456727816563</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D22" t="n">
-        <v>730.456727816563</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E22" t="n">
-        <v>564.2485219694165</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F22" t="n">
-        <v>392.3867477439769</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G22" t="n">
-        <v>227.0301303477982</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H22" t="n">
-        <v>91.23881239029944</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484806</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>166.4811349991141</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>652.364518782327</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M22" t="n">
-        <v>1181.462820193971</v>
+        <v>1409.031211019159</v>
       </c>
       <c r="N22" t="n">
-        <v>1295.958075335491</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O22" t="n">
-        <v>1776.114422406825</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S22" t="n">
-        <v>2131.215415329221</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T22" t="n">
-        <v>1891.723027423366</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U22" t="n">
-        <v>1891.723027423366</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V22" t="n">
-        <v>1610.011560031395</v>
+        <v>1192.835029226951</v>
       </c>
       <c r="W22" t="n">
-        <v>1335.159156203908</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="X22" t="n">
-        <v>1092.595259649713</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="Y22" t="n">
-        <v>1092.595259649713</v>
+        <v>917.9826253994637</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2163.697044928325</v>
+        <v>2441.009380748933</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.796314941625</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.503694126626</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E23" t="n">
-        <v>887.5267542744834</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F23" t="n">
-        <v>462.4025724638836</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
@@ -5992,22 +5992,22 @@
         <v>239.551332392876</v>
       </c>
       <c r="K23" t="n">
-        <v>831.9740172340764</v>
+        <v>454.3844443466718</v>
       </c>
       <c r="L23" t="n">
-        <v>1575.348819368405</v>
+        <v>1083.499912005671</v>
       </c>
       <c r="M23" t="n">
-        <v>1883.721670649222</v>
+        <v>1391.872763286488</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.834060919214</v>
+        <v>1705.985153556479</v>
       </c>
       <c r="O23" t="n">
-        <v>2492.274503919738</v>
+        <v>2000.425596557003</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2246.117289897965</v>
       </c>
       <c r="Q23" t="n">
         <v>2914.642355556173</v>
@@ -6016,25 +6016,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U23" t="n">
-        <v>3003.534554078097</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V23" t="n">
-        <v>3003.534554078097</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="W23" t="n">
-        <v>2995.265408052108</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="X23" t="n">
-        <v>2583.545409219855</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="Y23" t="n">
-        <v>2583.545409219855</v>
+        <v>2686.711562710693</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.2996630831236</v>
+        <v>80.29966308312362</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233876</v>
+        <v>421.7811819283256</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965739</v>
+        <v>569.5721362965738</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189737</v>
+        <v>775.8227259189736</v>
       </c>
       <c r="M24" t="n">
         <v>1019.652926874475</v>
@@ -6147,25 +6147,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K25" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L25" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M25" t="n">
-        <v>1524.395656430017</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N25" t="n">
-        <v>2036.923834413417</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O25" t="n">
-        <v>2517.08018148475</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P25" t="n">
-        <v>2914.405931706204</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1164.839090095091</v>
+        <v>1761.365163546004</v>
       </c>
       <c r="C26" t="n">
-        <v>1164.839090095091</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.839090095091</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E26" t="n">
-        <v>1164.839090095091</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F26" t="n">
-        <v>739.714908284491</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
@@ -6226,52 +6226,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>982.926134527205</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>1575.348819368405</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1883.721670649222</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2791.395418073806</v>
+        <v>2944.040212756394</v>
       </c>
       <c r="U26" t="n">
-        <v>2533.201083152476</v>
+        <v>2944.040212756394</v>
       </c>
       <c r="V26" t="n">
-        <v>2175.711668278725</v>
+        <v>2586.550797882643</v>
       </c>
       <c r="W26" t="n">
-        <v>1779.320318579072</v>
+        <v>2586.550797882643</v>
       </c>
       <c r="X26" t="n">
-        <v>1779.320318579072</v>
+        <v>2586.550797882643</v>
       </c>
       <c r="Y26" t="n">
-        <v>1373.983048533963</v>
+        <v>2181.213527837534</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233876</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916358</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647598</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393203</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431409</v>
+        <v>268.5545278431414</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7632098856423</v>
+        <v>132.7632098856425</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
@@ -6396,40 +6396,40 @@
         <v>1524.395656430017</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>754.5538214144715</v>
+        <v>1761.365163546004</v>
       </c>
       <c r="C29" t="n">
-        <v>754.5538214144715</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D29" t="n">
-        <v>754.5538214144715</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E29" t="n">
         <v>485.1948728921618</v>
@@ -6463,25 +6463,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466717</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>974.175801956849</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1282.548653237666</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>1596.661043507657</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q29" t="n">
         <v>2762.403697278422</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>2745.340219156767</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V29" t="n">
-        <v>2387.850804283017</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W29" t="n">
-        <v>1991.459454583364</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="X29" t="n">
-        <v>1579.739455751111</v>
+        <v>2586.550797882643</v>
       </c>
       <c r="Y29" t="n">
-        <v>1174.402185706002</v>
+        <v>2181.213527837534</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.2996630831236</v>
+        <v>80.29966308312362</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233876</v>
+        <v>421.7811819283256</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916358</v>
+        <v>569.5721362965738</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>775.8227259189736</v>
       </c>
       <c r="M30" t="n">
-        <v>757.210732869537</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503732</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526591</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P30" t="n">
-        <v>1416.768316177413</v>
+        <v>1679.210510182351</v>
       </c>
       <c r="Q30" t="n">
         <v>1791.049965673171</v>
@@ -6597,61 +6597,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5545278431414</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H31" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I31" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K31" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L31" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M31" t="n">
-        <v>1524.395656430017</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N31" t="n">
-        <v>2036.923834413417</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O31" t="n">
-        <v>2517.08018148475</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P31" t="n">
-        <v>2914.405931706204</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T31" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
         <v>2322.906966102196</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1740.404424113326</v>
+        <v>2163.697044928325</v>
       </c>
       <c r="C32" t="n">
-        <v>1313.503694126626</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D32" t="n">
         <v>1313.503694126626</v>
@@ -6700,25 +6700,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466717</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705035</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.27330415132</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1349.385694421312</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>1643.826137421835</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2387.200939556164</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
         <v>2762.403697278422</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>2745.340219156767</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V32" t="n">
-        <v>2387.850804283017</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="W32" t="n">
-        <v>2152.124422945578</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.404424113326</v>
+        <v>2583.545409219855</v>
       </c>
       <c r="Y32" t="n">
-        <v>1740.404424113326</v>
+        <v>2583.545409219855</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.2996630831236</v>
+        <v>80.29966308312362</v>
       </c>
       <c r="J33" t="n">
-        <v>421.7811819283257</v>
+        <v>159.3389879233877</v>
       </c>
       <c r="K33" t="n">
-        <v>569.5721362965739</v>
+        <v>307.1299422916359</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8227259189737</v>
+        <v>513.3805319140356</v>
       </c>
       <c r="M33" t="n">
-        <v>1019.652926874475</v>
+        <v>757.210732869537</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.27799250867</v>
+        <v>1009.835798503732</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1237.327662526591</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1416.768316177413</v>
       </c>
       <c r="Q33" t="n">
         <v>1791.049965673171</v>
@@ -6849,7 +6849,7 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G34" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H34" t="n">
         <v>132.7632098856423</v>
@@ -6858,25 +6858,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1446.473939781796</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1959.002117765196</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2439.15846483653</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P34" t="n">
-        <v>2836.484215057983</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1401.099559135589</v>
+        <v>705.0298961220816</v>
       </c>
       <c r="C35" t="n">
-        <v>974.1988291488894</v>
+        <v>705.0298961220816</v>
       </c>
       <c r="D35" t="n">
-        <v>974.1988291488894</v>
+        <v>705.0298961220816</v>
       </c>
       <c r="E35" t="n">
-        <v>974.1988291488894</v>
+        <v>705.0298961220816</v>
       </c>
       <c r="F35" t="n">
-        <v>549.0746473382897</v>
+        <v>705.0298961220816</v>
       </c>
       <c r="G35" t="n">
-        <v>320.0677541164978</v>
+        <v>302.6980147397599</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848318</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.878716272598</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U35" t="n">
-        <v>1820.947923427119</v>
+        <v>1879.576579873195</v>
       </c>
       <c r="V35" t="n">
-        <v>1820.947923427119</v>
+        <v>1522.087164999444</v>
       </c>
       <c r="W35" t="n">
-        <v>1820.947923427119</v>
+        <v>1522.087164999444</v>
       </c>
       <c r="X35" t="n">
-        <v>1820.947923427119</v>
+        <v>1110.367166167191</v>
       </c>
       <c r="Y35" t="n">
-        <v>1820.947923427119</v>
+        <v>705.0298961220816</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.5540468050084</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C36" t="n">
-        <v>803.0481433225132</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D36" t="n">
-        <v>699.2081848377982</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E36" t="n">
-        <v>594.5062511107354</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F36" t="n">
-        <v>500.8604207936396</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>407.8805855396969</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>364.8764582478581</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>385.1054302494197</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>464.1447550896837</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K36" t="n">
-        <v>874.3779034628706</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>1080.62849308527</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>1324.458694040772</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.083759674967</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1804.575623697826</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1984.016277348648</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>2095.855732839467</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
-        <v>2137.770914794523</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S36" t="n">
-        <v>2076.394567347004</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T36" t="n">
-        <v>1938.843349494019</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U36" t="n">
-        <v>1754.145807132632</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V36" t="n">
-        <v>1549.172668271899</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W36" t="n">
-        <v>1352.651291105116</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>1189.173944871779</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y36" t="n">
-        <v>1049.481056225071</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.7469826734012</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C37" t="n">
-        <v>751.7744195523172</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D37" t="n">
-        <v>588.4576466790879</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E37" t="n">
-        <v>588.4576466790879</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F37" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>491.685460761357</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>793.5055319595104</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M37" t="n">
-        <v>1322.603833371155</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N37" t="n">
-        <v>1437.099088512675</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>1983.326552563497</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T37" t="n">
-        <v>1743.834164657642</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U37" t="n">
-        <v>1463.698826283924</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V37" t="n">
-        <v>1181.987358891952</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W37" t="n">
-        <v>1150.089750983659</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X37" t="n">
-        <v>1150.089750983659</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.7469826734012</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1596.23804477034</v>
+        <v>1673.80498830334</v>
       </c>
       <c r="C38" t="n">
-        <v>1169.33731478364</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D38" t="n">
-        <v>746.0446939686403</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E38" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
         <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y38" t="n">
-        <v>2016.08640906187</v>
+        <v>1673.80498830334</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,34 +7244,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377161</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059643</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283639</v>
+        <v>519.5225649727761</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838651</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180605</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.012389740919</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P39" t="n">
-        <v>1399.453043391741</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q39" t="n">
         <v>1773.7346928875</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>685.6978464731421</v>
+        <v>664.571058510271</v>
       </c>
       <c r="C40" t="n">
-        <v>513.7252833520581</v>
+        <v>664.571058510271</v>
       </c>
       <c r="D40" t="n">
-        <v>350.4085104788288</v>
+        <v>501.2542856370417</v>
       </c>
       <c r="E40" t="n">
-        <v>350.4085104788288</v>
+        <v>335.0460797898952</v>
       </c>
       <c r="F40" t="n">
-        <v>178.5467362533892</v>
+        <v>335.0460797898952</v>
       </c>
       <c r="G40" t="n">
         <v>178.5467362533892</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484803</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K40" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>899.647127896349</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M40" t="n">
-        <v>1015.623186533302</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N40" t="n">
-        <v>1130.118441674823</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O40" t="n">
-        <v>1610.274788746156</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
-        <v>2007.60053896761</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q40" t="n">
         <v>2137.770914794523</v>
@@ -7359,7 +7359,7 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.326552563497</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T40" t="n">
         <v>1743.834164657642</v>
@@ -7368,16 +7368,16 @@
         <v>1463.698826283924</v>
       </c>
       <c r="V40" t="n">
-        <v>1377.058987322953</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W40" t="n">
-        <v>1102.206583495466</v>
+        <v>907.1349550644659</v>
       </c>
       <c r="X40" t="n">
-        <v>1102.206583495466</v>
+        <v>664.571058510271</v>
       </c>
       <c r="Y40" t="n">
-        <v>875.8638151852078</v>
+        <v>664.571058510271</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>445.0872996782122</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="C41" t="n">
-        <v>445.0872996782122</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D41" t="n">
-        <v>445.0872996782122</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E41" t="n">
-        <v>445.0872996782122</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F41" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M41" t="n">
         <v>1017.958031365649</v>
@@ -7432,7 +7432,7 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
         <v>2137.770914794523</v>
@@ -7441,22 +7441,22 @@
         <v>2079.142258348449</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.003122344157</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U41" t="n">
-        <v>1608.808787422828</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V41" t="n">
-        <v>1251.319372549078</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W41" t="n">
-        <v>854.9280228494245</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X41" t="n">
-        <v>445.0872996782122</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y41" t="n">
-        <v>445.0872996782122</v>
+        <v>1673.80498830334</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,37 +7481,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>552.2568635109033</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>758.5074531333029</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719723</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>395.9511842536708</v>
+        <v>402.5066837189729</v>
       </c>
       <c r="C43" t="n">
-        <v>223.9786211325868</v>
+        <v>402.5066837189729</v>
       </c>
       <c r="D43" t="n">
-        <v>223.9786211325868</v>
+        <v>402.5066837189729</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9786211325868</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F43" t="n">
-        <v>115.4479370999708</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G43" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484803</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K43" t="n">
-        <v>166.4811349991141</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>481.8999867656337</v>
+        <v>481.8999867656335</v>
       </c>
       <c r="M43" t="n">
         <v>1010.998288177278</v>
@@ -7593,28 +7593,28 @@
         <v>2137.770914794523</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S43" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T43" t="n">
-        <v>1891.723027423366</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U43" t="n">
-        <v>1611.587689049647</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V43" t="n">
-        <v>1329.876221657676</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W43" t="n">
-        <v>1055.023817830189</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X43" t="n">
-        <v>812.4599212759944</v>
+        <v>819.0154207412965</v>
       </c>
       <c r="Y43" t="n">
-        <v>586.1171529657364</v>
+        <v>592.6726524310385</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1721.257590332054</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="C44" t="n">
-        <v>1294.356860345354</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="D44" t="n">
-        <v>871.0642395303546</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E44" t="n">
-        <v>445.0872996782122</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M44" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P44" t="n">
         <v>1872.202557977126</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
         <v>2137.770914794523</v>
@@ -7678,22 +7678,22 @@
         <v>2079.142258348449</v>
       </c>
       <c r="T44" t="n">
-        <v>2079.142258348449</v>
+        <v>1978.838027206672</v>
       </c>
       <c r="U44" t="n">
-        <v>2079.142258348449</v>
+        <v>1978.838027206672</v>
       </c>
       <c r="V44" t="n">
-        <v>1721.652843474698</v>
+        <v>1978.838027206672</v>
       </c>
       <c r="W44" t="n">
-        <v>1721.652843474698</v>
+        <v>1978.838027206672</v>
       </c>
       <c r="X44" t="n">
-        <v>1721.652843474698</v>
+        <v>1978.838027206672</v>
       </c>
       <c r="Y44" t="n">
-        <v>1721.652843474698</v>
+        <v>1573.500757161562</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
         <v>377.0871448858306</v>
@@ -7718,37 +7718,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J45" t="n">
-        <v>142.0237151377161</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K45" t="n">
-        <v>446.8013632259974</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L45" t="n">
-        <v>653.051952848397</v>
+        <v>496.0652591283642</v>
       </c>
       <c r="M45" t="n">
-        <v>896.8821538038983</v>
+        <v>739.8954600838656</v>
       </c>
       <c r="N45" t="n">
-        <v>1149.507219438094</v>
+        <v>992.5205257180611</v>
       </c>
       <c r="O45" t="n">
-        <v>1376.999083460953</v>
+        <v>1220.01238974092</v>
       </c>
       <c r="P45" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q45" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7769,10 +7769,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>522.914725315434</v>
+        <v>866.2524913394552</v>
       </c>
       <c r="C46" t="n">
-        <v>522.914725315434</v>
+        <v>694.2799282183712</v>
       </c>
       <c r="D46" t="n">
-        <v>359.5979524422047</v>
+        <v>530.9631553451419</v>
       </c>
       <c r="E46" t="n">
-        <v>359.5979524422047</v>
+        <v>364.7549494979954</v>
       </c>
       <c r="F46" t="n">
-        <v>187.7361782167651</v>
+        <v>192.8931752725559</v>
       </c>
       <c r="G46" t="n">
         <v>115.4479370999708</v>
@@ -7803,22 +7803,22 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484803</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K46" t="n">
-        <v>166.4811349991141</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L46" t="n">
-        <v>481.8999867656337</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M46" t="n">
-        <v>1010.998288177278</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.526466160678</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O46" t="n">
         <v>2003.682813232012</v>
@@ -7830,28 +7830,28 @@
         <v>2137.770914794523</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.326552563497</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T46" t="n">
-        <v>1743.834164657642</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U46" t="n">
-        <v>1463.698826283924</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="V46" t="n">
-        <v>1181.987358891952</v>
+        <v>1610.011560031395</v>
       </c>
       <c r="W46" t="n">
-        <v>1181.987358891952</v>
+        <v>1335.159156203908</v>
       </c>
       <c r="X46" t="n">
-        <v>939.4234623377575</v>
+        <v>1092.595259649713</v>
       </c>
       <c r="Y46" t="n">
-        <v>713.0806940274996</v>
+        <v>866.2524913394552</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>241.3988769298246</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>232.0021351915882</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>141.2399822880253</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>265.0931252575135</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>376.8458847951295</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>209.3311033197068</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>265.0931252575133</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>145.2345574960191</v>
       </c>
       <c r="N19" t="n">
-        <v>384.2751793611411</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0931252575133</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219101</v>
+        <v>318.6730382198335</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>76.96453883564428</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>381.4036089771764</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>475.6149430409062</v>
+        <v>360.2014738739067</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K24" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.01016813891724</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>533.8804951318517</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>323.138056886231</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>289.1611029510189</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>249.7730798851976</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>453.4690496301064</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.01016813891724</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>502.710210902391</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>200.5319186129132</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10521,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>268.6251448311431</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.7189728340893</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K36" t="n">
-        <v>265.0931252575139</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>194.2682636425308</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.3988769298244</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>265.093125257514</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -10989,19 +10989,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>282.8953427940876</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.46648476014954</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
-        <v>265.0931252575141</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>208.0044056307795</v>
+        <v>208.0044056307791</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>158.5724178990233</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>208.0044056307795</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>417.2951947219101</v>
@@ -11469,7 +11469,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>209.3311033197065</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>258.8090660383203</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.835817680590196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>103.642404827903</v>
+        <v>179.7782651876613</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,16 +23503,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>217.4497957231747</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>265.2881639748601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>128.5729274675463</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>127.2820451811631</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>283.0639612370512</v>
+        <v>46.97807600842793</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442483</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.7254851918113</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>168.0313539175041</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>181.7302050154827</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -23986,7 +23986,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>23.57276407466056</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>23.96703346257465</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>10.73919363164725</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>172.404720506472</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>384.2409816369275</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>208.5973617941317</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.1607166173759</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>155.0518114165344</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>52.83125009204463</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>159.0583186785921</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>259.8736599601328</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>171.5917382789245</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>17.19604198297054</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
         <v>210.0177446442483</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648588</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>137.1421598129215</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>240.5252479600019</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>69.54245343242292</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161368</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
         <v>255.612391572116</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>280.8162366693322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>8.76870112107602</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648588</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>193.1209121466903</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>62.56061139420478</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
         <v>274.5392124624013</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>1.860482904430057</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>142.2385787252256</v>
       </c>
       <c r="F43" t="n">
-        <v>62.69777929089541</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.2585800373972</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442483</v>
+        <v>110.7165558138885</v>
       </c>
       <c r="U44" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>92.13769251659059</v>
+        <v>87.03226543135777</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648588</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>342147.2484510302</v>
+        <v>342147.2484510303</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>342147.2484510302</v>
+        <v>342147.2484510303</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>460331.3425950758</v>
+        <v>460331.342595076</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>342147.2484510302</v>
+        <v>342147.2484510303</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>342147.2484510302</v>
+        <v>342147.2484510303</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>459005.7691301062</v>
       </c>
       <c r="D2" t="n">
-        <v>459005.7691301063</v>
+        <v>459005.7691301062</v>
       </c>
       <c r="E2" t="n">
+        <v>272948.3045884967</v>
+      </c>
+      <c r="F2" t="n">
+        <v>272948.3045884968</v>
+      </c>
+      <c r="G2" t="n">
+        <v>272948.3045884967</v>
+      </c>
+      <c r="H2" t="n">
+        <v>272948.3045884965</v>
+      </c>
+      <c r="I2" t="n">
+        <v>342564.5111976896</v>
+      </c>
+      <c r="J2" t="n">
+        <v>342564.5111976893</v>
+      </c>
+      <c r="K2" t="n">
+        <v>342564.5111976893</v>
+      </c>
+      <c r="L2" t="n">
+        <v>342564.5111976893</v>
+      </c>
+      <c r="M2" t="n">
         <v>272948.3045884966</v>
       </c>
-      <c r="F2" t="n">
-        <v>272948.3045884966</v>
-      </c>
-      <c r="G2" t="n">
-        <v>272948.3045884966</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>272948.3045884967</v>
       </c>
-      <c r="I2" t="n">
-        <v>342564.5111976892</v>
-      </c>
-      <c r="J2" t="n">
-        <v>342564.5111976892</v>
-      </c>
-      <c r="K2" t="n">
-        <v>342564.5111976892</v>
-      </c>
-      <c r="L2" t="n">
-        <v>342564.5111976892</v>
-      </c>
-      <c r="M2" t="n">
-        <v>272948.3045884965</v>
-      </c>
-      <c r="N2" t="n">
-        <v>272948.3045884965</v>
-      </c>
       <c r="O2" t="n">
-        <v>272948.3045884966</v>
+        <v>272948.3045884967</v>
       </c>
       <c r="P2" t="n">
-        <v>272948.3045884967</v>
+        <v>272948.3045884968</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222536</v>
+        <v>556689.6559222535</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.704436726868153e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048181</v>
+        <v>57556.18318048178</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160789</v>
+        <v>79247.32527160764</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
@@ -26432,34 +26432,34 @@
         <v>18463.88573763713</v>
       </c>
       <c r="G4" t="n">
-        <v>18463.88573763713</v>
+        <v>18463.88573763714</v>
       </c>
       <c r="H4" t="n">
         <v>18463.88573763714</v>
       </c>
       <c r="I4" t="n">
-        <v>54111.91521625011</v>
+        <v>54111.91521625013</v>
       </c>
       <c r="J4" t="n">
-        <v>54111.91521625011</v>
+        <v>54111.9152162501</v>
       </c>
       <c r="K4" t="n">
-        <v>54111.91521625011</v>
+        <v>54111.91521625009</v>
       </c>
       <c r="L4" t="n">
-        <v>54111.91521625012</v>
+        <v>54111.91521625009</v>
       </c>
       <c r="M4" t="n">
-        <v>18463.88573763718</v>
+        <v>18463.88573763714</v>
       </c>
       <c r="N4" t="n">
-        <v>18463.88573763716</v>
+        <v>18463.88573763713</v>
       </c>
       <c r="O4" t="n">
-        <v>18463.88573763716</v>
+        <v>18463.88573763713</v>
       </c>
       <c r="P4" t="n">
-        <v>18463.88573763715</v>
+        <v>18463.88573763713</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
         <v>43269.71441650124</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104602.6423124455</v>
+        <v>104580.9286709491</v>
       </c>
       <c r="C6" t="n">
-        <v>104602.6423124454</v>
+        <v>104580.9286709491</v>
       </c>
       <c r="D6" t="n">
-        <v>104602.6423124455</v>
+        <v>104580.9286709491</v>
       </c>
       <c r="E6" t="n">
-        <v>-345474.9514878953</v>
+        <v>-346078.094706084</v>
       </c>
       <c r="F6" t="n">
-        <v>211214.7044343582</v>
+        <v>210611.5612161694</v>
       </c>
       <c r="G6" t="n">
-        <v>211214.7044343583</v>
+        <v>210611.5612161694</v>
       </c>
       <c r="H6" t="n">
-        <v>211214.7044343583</v>
+        <v>210611.5612161692</v>
       </c>
       <c r="I6" t="n">
-        <v>174467.0910673457</v>
+        <v>174081.498494811</v>
       </c>
       <c r="J6" t="n">
-        <v>232023.2742478276</v>
+        <v>231637.6816752925</v>
       </c>
       <c r="K6" t="n">
-        <v>232023.2742478275</v>
+        <v>231637.6816752925</v>
       </c>
       <c r="L6" t="n">
-        <v>232023.2742478275</v>
+        <v>231637.6816752925</v>
       </c>
       <c r="M6" t="n">
-        <v>131967.3791627501</v>
+        <v>131364.2359445617</v>
       </c>
       <c r="N6" t="n">
-        <v>211214.7044343581</v>
+        <v>210611.5612161695</v>
       </c>
       <c r="O6" t="n">
-        <v>211214.7044343583</v>
+        <v>210611.5612161694</v>
       </c>
       <c r="P6" t="n">
-        <v>211214.7044343584</v>
+        <v>210611.5612161695</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="G3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="H3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="I3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="J3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="K3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="L3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="I4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986308</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.156300219329812e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208935</v>
+        <v>216.4409098208934</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777382</v>
+        <v>318.0018188777373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31764,13 +31764,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
         <v>354.5648655314068</v>
@@ -31782,7 +31782,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R11" t="n">
         <v>124.822749411891</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
@@ -31846,16 +31846,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P12" t="n">
         <v>203.0240267107093</v>
@@ -31867,10 +31867,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
         <v>0.06994718178741881</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108724</v>
@@ -31934,7 +31934,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
         <v>107.8045841409626</v>
@@ -31943,7 +31943,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
         <v>15.53377839734105</v>
@@ -32001,13 +32001,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
         <v>354.5648655314068</v>
@@ -32019,7 +32019,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R14" t="n">
         <v>124.822749411891</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
@@ -32083,16 +32083,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
         <v>203.0240267107093</v>
@@ -32104,10 +32104,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
         <v>0.06994718178741881</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
@@ -32171,7 +32171,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
@@ -32180,7 +32180,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734105</v>
@@ -32238,13 +32238,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
         <v>354.5648655314068</v>
@@ -32256,7 +32256,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R17" t="n">
         <v>124.822749411891</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
@@ -32320,16 +32320,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P18" t="n">
         <v>203.0240267107093</v>
@@ -32341,10 +32341,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
         <v>0.06994718178741881</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
@@ -32408,7 +32408,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
         <v>107.8045841409626</v>
@@ -32417,7 +32417,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734105</v>
@@ -32475,13 +32475,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
         <v>354.5648655314068</v>
@@ -32493,7 +32493,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
@@ -32557,16 +32557,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P21" t="n">
         <v>203.0240267107093</v>
@@ -32578,10 +32578,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U21" t="n">
         <v>0.06994718178741881</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108724</v>
@@ -32645,7 +32645,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
         <v>107.8045841409626</v>
@@ -32654,7 +32654,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S22" t="n">
         <v>15.53377839734105</v>
@@ -32712,13 +32712,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
         <v>354.5648655314068</v>
@@ -32730,7 +32730,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
@@ -32794,16 +32794,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P24" t="n">
         <v>203.0240267107093</v>
@@ -32815,10 +32815,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U24" t="n">
         <v>0.06994718178741881</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108724</v>
@@ -32882,7 +32882,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
         <v>107.8045841409626</v>
@@ -32891,7 +32891,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734105</v>
@@ -32949,13 +32949,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
         <v>354.5648655314068</v>
@@ -32967,7 +32967,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R26" t="n">
         <v>124.822749411891</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
@@ -33031,16 +33031,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P27" t="n">
         <v>203.0240267107093</v>
@@ -33052,10 +33052,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U27" t="n">
         <v>0.06994718178741881</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I28" t="n">
         <v>26.80528896108724</v>
@@ -33119,7 +33119,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
         <v>107.8045841409626</v>
@@ -33128,7 +33128,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
         <v>15.53377839734105</v>
@@ -33186,13 +33186,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
         <v>354.5648655314068</v>
@@ -33204,7 +33204,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R29" t="n">
         <v>124.822749411891</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
@@ -33268,16 +33268,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P30" t="n">
         <v>203.0240267107093</v>
@@ -33289,10 +33289,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U30" t="n">
         <v>0.06994718178741881</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I31" t="n">
         <v>26.80528896108724</v>
@@ -33356,7 +33356,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
         <v>107.8045841409626</v>
@@ -33365,7 +33365,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
         <v>15.53377839734105</v>
@@ -33423,13 +33423,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
         <v>354.5648655314068</v>
@@ -33441,7 +33441,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R32" t="n">
         <v>124.822749411891</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
@@ -33505,16 +33505,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P33" t="n">
         <v>203.0240267107093</v>
@@ -33526,10 +33526,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
         <v>0.06994718178741881</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
@@ -33593,7 +33593,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
         <v>107.8045841409626</v>
@@ -33602,7 +33602,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
         <v>15.53377839734105</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R35" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U35" t="n">
         <v>0.1589687374357951</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K37" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L37" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M37" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O38" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R38" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K40" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L40" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M40" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O41" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R41" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L43" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O44" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R44" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L46" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
         <v>217.0031433876725</v>
@@ -35433,7 +35433,7 @@
         <v>178.4607659550237</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.12755337977123</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>321.2365787886771</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35500,7 +35500,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
         <v>229.7897616392515</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622837</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M13" t="n">
-        <v>349.1496691683088</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N13" t="n">
-        <v>517.7052302862629</v>
+        <v>256.8917551582477</v>
       </c>
       <c r="O13" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.01874334784338</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
         <v>217.0031433876725</v>
@@ -35670,7 +35670,7 @@
         <v>178.4607659550237</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
@@ -35737,19 +35737,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
         <v>229.7897616392515</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3463107633941</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q15" t="n">
         <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.38160322116929</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L16" t="n">
         <v>490.7912967507201</v>
       </c>
       <c r="M16" t="n">
-        <v>493.9934187718501</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
         <v>517.7052302862629</v>
@@ -35822,7 +35822,7 @@
         <v>103.4889118870001</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297615</v>
+        <v>294.7548868026829</v>
       </c>
       <c r="Q16" t="n">
         <v>50.01874334784338</v>
@@ -35883,7 +35883,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
         <v>217.0031433876725</v>
@@ -35892,7 +35892,7 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664814</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969608</v>
@@ -35907,7 +35907,7 @@
         <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>344.9308271163659</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
@@ -35974,7 +35974,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392515</v>
@@ -35986,7 +35986,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,19 +36050,19 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1475339767207</v>
+        <v>262.3820914727398</v>
       </c>
       <c r="N19" t="n">
-        <v>499.9269522313634</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O19" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.01874334784338</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
         <v>217.0031433876725</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>344.9308271163659</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
@@ -36211,7 +36211,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392515</v>
@@ -36223,7 +36223,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622837</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
         <v>490.7912967507201</v>
       </c>
       <c r="M22" t="n">
-        <v>534.4427286986307</v>
+        <v>435.8205721965542</v>
       </c>
       <c r="N22" t="n">
         <v>115.6517728702224</v>
@@ -36296,10 +36296,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>162.3883223186204</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K23" t="n">
-        <v>598.4067523648489</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
-        <v>750.8836385195242</v>
+        <v>635.4701693525246</v>
       </c>
       <c r="M23" t="n">
         <v>311.4877285664818</v>
@@ -36378,10 +36378,10 @@
         <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550237</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885254</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K24" t="n">
-        <v>414.3769175486731</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
         <v>208.3339289115149</v>
@@ -36448,7 +36448,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392515</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
@@ -36536,7 +36536,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.02891148676062</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011801</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>750.8836385195242</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
-        <v>598.4067523648489</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
         <v>311.4877285664818</v>
@@ -36615,10 +36615,10 @@
         <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709449</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K27" t="n">
         <v>149.2837922911598</v>
@@ -36685,7 +36685,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392515</v>
@@ -36694,10 +36694,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>534.8601405048234</v>
       </c>
       <c r="N28" t="n">
-        <v>404.8128758212413</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
@@ -36773,7 +36773,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011801</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>525.0417753638155</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
         <v>311.4877285664818</v>
@@ -36846,13 +36846,13 @@
         <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
-        <v>750.8836385195242</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
         <v>248.1734276171332</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R29" t="n">
         <v>243.5665220198734</v>
@@ -36910,7 +36910,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885254</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
@@ -36922,7 +36922,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392515</v>
@@ -36931,7 +36931,7 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
         <v>42.33856763136923</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K31" t="n">
         <v>332.3742814427153</v>
@@ -37010,7 +37010,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.02891148676062</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011801</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
         <v>217.0031433876725</v>
@@ -37086,10 +37086,10 @@
         <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>378.9926845679369</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R32" t="n">
         <v>243.5665220198734</v>
@@ -37147,7 +37147,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J33" t="n">
-        <v>344.9308271163658</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37159,7 +37159,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392515</v>
@@ -37168,7 +37168,7 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.9691469604239</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R33" t="n">
         <v>42.33856763136923</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
         <v>332.3742814427153</v>
@@ -37241,13 +37241,13 @@
         <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
-        <v>485.006411183165</v>
+        <v>372.1140567181432</v>
       </c>
       <c r="P34" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>168.7377161819327</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709541</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885251</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K36" t="n">
-        <v>414.3769175486736</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O36" t="n">
         <v>229.7897616392515</v>
@@ -37408,7 +37408,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K37" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>304.8687587860135</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M37" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702223</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>103.4889118870001</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786178</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894183</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171339</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885251</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782841</v>
+        <v>487.6920092081086</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
-        <v>378.0622722179379</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
-        <v>117.1475339767206</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702223</v>
+        <v>398.54711566431</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.4852281079929</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786178</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664824</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885251</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
-        <v>414.3769175486739</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.38160322116927</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K43" t="n">
-        <v>82.59386819622834</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
-        <v>318.6049007742622</v>
+        <v>318.6049007742619</v>
       </c>
       <c r="M43" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N43" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297612</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.01874334784335</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786178</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.43330505208249</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885251</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K45" t="n">
-        <v>307.856210190183</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058806</v>
+        <v>446.3463107633938</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>148.8592749898599</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.38160322116927</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622834</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L46" t="n">
-        <v>318.6049007742622</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N46" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O46" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067067</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297612</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.01874334784335</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
